--- a/casestudy/blank-results-sheet.xlsx
+++ b/casestudy/blank-results-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA29A5-391D-F04E-B72F-ECA9B65A1A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F7311-7B70-FE46-A256-E9ABC242E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>comparison with original bug</t>
   </si>
   <si>
-    <t>failure caused by original bug</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>effect of reintroducing the bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -489,19 +489,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,10 +836,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,16 +865,15 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -883,11 +882,11 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -895,20 +894,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
